--- a/Test2.xlsx
+++ b/Test2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adcsuf-my.sharepoint.com/personal/duynguyen1993_csu_fullerton_edu/Documents/Work-Related Documents/SCCWRP/Projects/General-Diff-Check/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\PartTimers\DuyNguyen\Projects\General-Diff-Check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_F25DC773A252ABDACC1048BA09987BAC5BDE58E9" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D07D0DCE-AE36-419C-BBDB-6D402B63D5D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8670CEAF-6B73-448E-871E-3AEF08F01437}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="26235" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>charlie</t>
-  </si>
-  <si>
-    <t>david</t>
   </si>
   <si>
     <t>helen</t>
@@ -366,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +396,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>30303030</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -407,13 +404,13 @@
         <v>5</v>
       </c>
       <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3">
         <v>1000</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -421,26 +418,12 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>80</v>
-      </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
-      <c r="D5">
         <v>600</v>
       </c>
     </row>
